--- a/Results/Experimento2[04_08_2023-20_42].xlsx
+++ b/Results/Experimento2[04_08_2023-20_42].xlsx
@@ -1,37 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C836CB7-D093-4C73-AC73-FEC47257D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>val_acc_list</t>
+  </si>
+  <si>
+    <t>test_acc</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>[0, 0.9477864583333333, 0.9662760416666667, 0.97265625, 0.9740885416666667, 0.97890625, 0.9796875, 0.98125, 0.982421875, 0.98203125, 0.982421875, 0.9809895833333333, 0.9805989583333333, 0.9817708333333334, 0.9828125, 0.9817708333333334, 0.9834635416666667, 0.98359375, 0.9845052083333333, 0.9805989583333333, 0.9852864583333333, 0.9834635416666667, 0.9848958333333333, 0.987109375, 0.9877604166666667, 0.9850260416666666, 0.983203125, 0.9852864583333333, 0.9822916666666667, 0.9825520833333333, 0.98359375, 0.9865885416666667, 0.9838541666666667, 0.9837239583333334, 0.98515625, 0.9850260416666666, 0.9838541666666667, 0.9799479166666667, 0.9858072916666667, 0.9852864583333333, 0.98515625, 0.9865885416666667, 0.986328125, 0.9850260416666666, 0.982421875, 0.9838541666666667, 0.9842447916666667, 0.9856770833333334, 0.9846354166666667, 0.9861979166666667, 0.9858072916666667, 0.9854166666666667, 0.9875, 0.9852864583333333, 0.985546875, 0.98515625, 0.985546875, 0.9860677083333333, 0.9852864583333333, 0.9865885416666667, 0.9860677083333333, 0.9837239583333334, 0.984765625, 0.9837239583333334, 0.984375, 0.986328125, 0.9890625, 0.9856770833333334, 0.98359375, 0.9848958333333333, 0.9854166666666667, 0.9858072916666667, 0.9828125, 0.985546875, 0.9837239583333334, 0.9859375, 0.983203125, 0.980859375, 0.9846354166666667, 0.98515625, 0.986328125, 0.9826822916666667, 0.9859375, 0.983203125, 0.9838541666666667, 0.9826822916666667, 0.9856770833333334, 0.9850260416666666, 0.9834635416666667, 0.984375, 0.9854166666666667, 0.9869791666666666, 0.98515625, 0.98359375, 0.98515625, 0.984765625, 0.9864583333333333, 0.9845052083333333, 0.985546875, 0.985546875, 0.98515625]</t>
+  </si>
+  <si>
+    <t>98.65%</t>
+  </si>
+  <si>
+    <t>[0.2410281519095103, 0.14465323835611343, 0.09575072973966599, 0.08263205736875534, 0.0686377135415872, 0.04922281056642532, 0.034622813450793426, 0.03951647455493609, 0.036884210507074994, 0.04049759500970443, 0.04622013842066129, 0.04143776843945186, 0.03747465051710606, 0.019692174283166726, 0.015072365663945675, 0.01198188296208779, 0.011817771693070729, 0.017812712738911312, 0.016914544099320968, 0.018887589840839308, 0.01898238779976964, 0.01337765557691455, 0.007899004081264139, 0.007363290075833599, 0.005871089827269316, 0.010502328009655079, 0.013363510672934353, 0.014684370517109831, 0.013024631468579174, 0.008391163505924245, 0.007414967760754129, 0.004439791160014768, 0.0032418900053016843, 0.010246195644140244, 0.008963139611296356, 0.014980280996921162, 0.01122436709702015, 0.007918274697537224, 0.00386066601301233, 0.0036860972177237272, 0.0029701329457263153, 0.0035582820807273188, 0.010491678326313073, 0.007337799427720408, 0.009627504530362785, 0.007223483772637943, 0.004522478956884394, 0.0022722159240705273, 0.0038648691261187196, 0.00455917304692169, 0.006146762683056295, 0.006731955821548278, 0.006323461188003421, 0.0026894679293036463, 0.0028459895411894346, 0.0014087465630533795, 0.00272459972766228, 0.002643019719592606, 0.003333115195467447, 0.0061013591689212865, 0.004308410050968329, 0.004603281351349627, 0.003796228737337515, 0.002177500964414018, 0.002021797263296321, 0.0020771914899038774, 0.003730252700430962, 0.004091534010755519, 0.004403422175285717, 0.005043045916439345, 0.0018929003602049003, 0.001747462136942583, 0.002983524048856149, 0.00402766986808274, 0.0018030638942339767, 0.005603912106986779, 0.004703416501676353, 0.0033245937142055483, 0.0018860897175424422, 0.0016840749924692015, 0.0009292126400396228, 0.001786123588681221, 0.001308164139239428, 0.0029555862119498974, 0.005436527432175353, 0.002001362230900365, 0.0010999058024026454, 0.0014715331674475844, 0.0006259262489038519, 0.0019741746529083077, 0.0031515277708725384, 0.00380183737919045, 0.0035137673393667987, 0.00244523766838635, 0.0017912870137176166, 0.0010627749667037278, 0.0016529379136045463, 0.0016594949697415966, 0.0009614998057562237, 0.0014130577357718721]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0998280762722844, 0.09998529135205533, 0.09999222542003228, 0.10077851787697745, 0.05698403464315436, 0.015709099666983858, 0.010195701301402373, 0.010044942029303838, 0.028238656515845704, 0.09562981535149231, 0.09623143960490291, 0.09920287836213479, 0.04002196961695877, 0.03754148782118897, 0.019198920539901014, 0.015862653282333286, 0.08554737466717242, 0.08694863598038381, 0.09490179464338172, 0.10058469765337313, 0.06629754259704698, 0.02370496232994205, 0.023138289934121255, 0.02080694322694981, 0.057753980949134365, 0.07713771090145381, 0.08968062360040466, 0.09768682611536061, 0.08388907129419336, 0.08320382273198443, 0.05553381834938299, 0.009242151225330444, 0.07124166923428114, 0.07650270018854671, 0.08956927516841699, 0.09844843534581504, 0.08736315967096732, 0.035748315528207696, 0.025833430170188458, 0.00920491337038913, 0.07515067336044233, 0.0824021918225562, 0.09838994480311178, 0.09898417184781998, 0.04620684580072862, 0.04217647643029522, 0.014271253525974002, 0.010871061673054306, 0.058277327401875585, 0.07012044761902175, 0.08766164138514748, 0.09634058975400986, 0.094894689535365, 0.053156538371597624, 0.037181705642244975, 0.025458789251507064, 0.09179332084554664, 0.09405473325750213, 0.09443557616408561, 0.09665586673175962, 0.07463777162329269, 0.02659594111379949, 0.02395074436118664, 0.014956430362604224, 0.07280167667394485, 0.08952396457698521, 0.09794906267645913, 0.09992822828290623, 0.09545336531275599, 0.09493216069183734, 0.021609743320701074, 0.01911882730550641, 0.04741809918199272, 0.0835672892847782, 0.09405383865011442, 0.09556109688022531, 0.09162826883340196, 0.014170152170785289, 0.012184569897200067, 0.011367775525429207, 0.045849400222604406, 0.07312043367953369, 0.09063366765543865, 0.09995122665754945, 0.07108599857864381, 0.03933284812086879, 0.018099403878547894, 0.009986366044705427, 0.05333160744911608, 0.057414597216204455, 0.0756665587916975, 0.10017927189769973, 0.05235819077960823, 0.04871896379234454, 0.043579235421921304, 0.02014080773014429, 0.09160383697161553, 0.09543428672815438, 0.09690071816235404, 0.09751855225693178]</t>
+  </si>
+  <si>
+    <t>98.52%</t>
+  </si>
+  <si>
+    <t>[0, 0.90859375, 0.9278645833333333, 0.9412760416666667, 0.9505208333333334, 0.9596354166666666, 0.9622395833333334, 0.9643229166666667, 0.9682291666666667, 0.9701822916666667, 0.972265625, 0.9721354166666667, 0.9739583333333334, 0.9740885416666667, 0.975390625, 0.9763020833333333, 0.977734375, 0.9790364583333333, 0.9778645833333334, 0.9756510416666667, 0.9821614583333333, 0.9790364583333333, 0.9802083333333333, 0.981640625, 0.9798177083333334, 0.9799479166666667, 0.982421875, 0.9787760416666667, 0.9802083333333333, 0.9798177083333334, 0.9815104166666667, 0.98046875, 0.9828125, 0.9799479166666667, 0.9805989583333333, 0.98203125, 0.980078125, 0.9825520833333333, 0.98046875, 0.9819010416666667, 0.9819010416666667, 0.9783854166666667, 0.9833333333333333, 0.9850260416666666, 0.9833333333333333, 0.9837239583333334, 0.9842447916666667, 0.9841145833333333, 0.9837239583333334, 0.9838541666666667, 0.9841145833333333, 0.9830729166666666, 0.9858072916666667, 0.9859375, 0.9852864583333333, 0.982421875, 0.980859375, 0.9850260416666666, 0.9825520833333333, 0.984765625, 0.9829427083333333, 0.9828125, 0.98203125, 0.985546875, 0.9838541666666667, 0.9833333333333333, 0.9834635416666667, 0.9829427083333333, 0.9837239583333334, 0.9830729166666666, 0.9815104166666667, 0.983984375, 0.9829427083333333, 0.98359375, 0.9825520833333333, 0.9817708333333334, 0.9803385416666667, 0.9819010416666667, 0.9852864583333333, 0.9837239583333334, 0.9860677083333333, 0.9846354166666667, 0.98515625, 0.9865885416666667, 0.98671875, 0.9834635416666667, 0.986328125, 0.9852864583333333, 0.983984375, 0.9838541666666667, 0.9846354166666667, 0.9856770833333334, 0.9876302083333334, 0.9854166666666667, 0.9841145833333333, 0.9826822916666667, 0.9868489583333333, 0.9850260416666666, 0.9856770833333334, 0.984765625, 0.9848958333333333]</t>
+  </si>
+  <si>
+    <t>98.45%</t>
+  </si>
+  <si>
+    <t>[0.4133042454719543, 0.3114662786324819, 0.2548975646495819, 0.22846281230449678, 0.18254066507021585, 0.1603513573606809, 0.14837950915098191, 0.12797302256027857, 0.12356487264235815, 0.1309336394071579, 0.11157601922750474, 0.09881754368543624, 0.09433105985323588, 0.09096547017494837, 0.07867998878161113, 0.08048059493303299, 0.07855132594704628, 0.06690428579847017, 0.05960954204201698, 0.06334008102615675, 0.060434989631175995, 0.055286094173789026, 0.058789847791194914, 0.05135727723439534, 0.052848718439539276, 0.051012270897626874, 0.0464123139778773, 0.04192570447921753, 0.04047607022027175, 0.04188028201460838, 0.038773565118511516, 0.034255165172119934, 0.0324412959938248, 0.035521214144925276, 0.03315851998825868, 0.03256988370170196, 0.03315371094892423, 0.03583191893994808, 0.02971161703268687, 0.030710987063745657, 0.02727018271883329, 0.0273324195916454, 0.018526106234639884, 0.02251420170068741, 0.02169298507894079, 0.022289593641956647, 0.019433986271421115, 0.019056317241241533, 0.01989104614282648, 0.0174306387702624, 0.01782880909740925, 0.014808275426427523, 0.014448406329999367, 0.016504870696614184, 0.018338291409114995, 0.014481958405425151, 0.015280823099116485, 0.01684860804428657, 0.015663870082547268, 0.015031656033049028, 0.015370682689050834, 0.015141285552332798, 0.012592472787946462, 0.013117084310700496, 0.013422478425006072, 0.008987949912746747, 0.010525686293840408, 0.009855219287176926, 0.011978985276073217, 0.01158608083302776, 0.00911220231403907, 0.008750236965715886, 0.011244047184785206, 0.013082584893951813, 0.009572608986248572, 0.009878930154566963, 0.009849969716742634, 0.007900263058642547, 0.011422487953677774, 0.008032132041019697, 0.010259285693367322, 0.008754098306720455, 0.010325968234489362, 0.007617683506881198, 0.006991100078448653, 0.008951045759022235, 0.007789134855071703, 0.007560062734410167, 0.009577198217933377, 0.007963672280311584, 0.008567630623777708, 0.0071575715361783905, 0.006594343576580286, 0.0060687461557487644, 0.005992783388743798, 0.008986421938364705, 0.008521800953894853, 0.007965912700941165, 0.005581794531705478, 0.0053250232866654795]</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>[0.0, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
+  </si>
+  <si>
+    <t>98.49%</t>
+  </si>
+  <si>
+    <t>[0, 0.9576822916666666, 0.9740885416666667, 0.9778645833333334, 0.97734375, 0.9795572916666667, 0.9813802083333333, 0.9799479166666667, 0.980078125, 0.983984375, 0.9837239583333334, 0.98203125, 0.982421875, 0.9838541666666667, 0.982421875, 0.982421875, 0.9837239583333334, 0.9821614583333333, 0.9830729166666666, 0.9856770833333334, 0.9845052083333333, 0.9821614583333333, 0.986328125, 0.982421875, 0.9861979166666667, 0.9822916666666667, 0.9848958333333333, 0.9860677083333333, 0.9845052083333333, 0.983203125, 0.9833333333333333, 0.9850260416666666, 0.98203125, 0.9858072916666667, 0.984765625, 0.9846354166666667, 0.9850260416666666, 0.9838541666666667, 0.9856770833333334, 0.9830729166666666, 0.9845052083333333, 0.9830729166666666, 0.9854166666666667, 0.9841145833333333, 0.983984375, 0.9861979166666667, 0.9845052083333333, 0.988671875, 0.9826822916666667, 0.98515625, 0.9845052083333333, 0.98515625, 0.9841145833333333, 0.98671875, 0.9846354166666667, 0.9842447916666667, 0.9869791666666666, 0.984765625, 0.9856770833333334, 0.9841145833333333, 0.9858072916666667, 0.9846354166666667, 0.983984375, 0.9805989583333333, 0.9860677083333333, 0.9852864583333333, 0.9854166666666667, 0.9834635416666667, 0.9858072916666667, 0.984765625, 0.984765625, 0.985546875, 0.98671875, 0.9842447916666667, 0.9826822916666667, 0.9846354166666667, 0.9830729166666666, 0.9856770833333334, 0.9856770833333334, 0.9846354166666667, 0.9846354166666667, 0.9828125, 0.9848958333333333, 0.983984375, 0.9841145833333333, 0.9846354166666667, 0.98515625, 0.9869791666666666, 0.9837239583333334, 0.982421875, 0.9817708333333334, 0.9813802083333333, 0.9848958333333333, 0.9869791666666666, 0.9842447916666667, 0.987890625, 0.9829427083333333, 0.9846354166666667, 0.9817708333333334, 0.982421875, 0.9841145833333333]</t>
+  </si>
+  <si>
+    <t>98.41%</t>
+  </si>
+  <si>
+    <t>[0.16654897530873616, 0.12576717684666316, 0.09602035780747732, 0.07833768079678217, 0.06012512817978859, 0.05046225575109323, 0.04357406459748745, 0.0455878088871638, 0.033885726456840834, 0.028808938587705293, 0.025155609721938768, 0.019969952727357545, 0.02422562421609958, 0.017019055566440025, 0.018091176419208446, 0.015503580216318369, 0.014585695508867503, 0.009911529999226332, 0.011360977574562033, 0.009253290994092823, 0.011635767004918307, 0.008253644748280446, 0.009715925653775532, 0.007983016564200323, 0.010259726146856944, 0.008587601206575831, 0.00957315304937462, 0.007273183250799775, 0.011026924293643485, 0.006707927957177162, 0.0031491965404711665, 0.0069768768191958465, 0.007457674127848198, 0.006635320334074398, 0.005614762652354935, 0.006730691619062175, 0.004759072170903285, 0.003726971374514202, 0.004765227646566927, 0.007104885403532535, 0.0057880074523078895, 0.0033380240104937306, 0.0038104041460125396, 0.00317255884486561, 0.004187914383752892, 0.003050354713923298, 0.005948853112446765, 0.005367288151561903, 0.00537927143741399, 0.006299815278422708, 0.0028049785643815993, 0.0021799033866651977, 0.004214441537624225, 0.005139571007263536, 0.004994203786676129, 0.006522642479588588, 0.003910661201613644, 0.003240176947050107, 0.005706426770969605, 0.003065635441453196, 0.002650658324516068, 0.002800739591475576, 0.0020319646593028057, 0.002022431891721984, 0.002541455725925819, 0.0025349553344616044, 0.00414255538295644, 0.0027594101673457773, 0.0014844391562898332, 0.0025685916620811137, 0.0017717113718390466, 0.00309583582857158, 0.001214675793501859, 0.001828562626421141, 0.0010081371268218693, 0.0019128687286865897, 0.004188486153240471, 0.001567315355108197, 0.004255076380407748, 0.003007426785188727, 0.0006983004219364375, 0.0013937094568973406, 0.002789175933867227, 0.0022616559067197765, 0.0017938971650437452, 0.0011789071356664257, 0.001392804785912934, 0.0011701605646521785, 0.0016655930099659598, 0.0018916320240047449, 0.002219982012199277, 0.0021333044176572004, 0.0015951166011897537, 0.0029698281502836227, 0.0014195647129478554, 0.001143140513158869, 0.0008913539131754078, 0.000822726320863391, 0.0006891387851889401, 0.002784707192040514]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.0999, 0.0998, 0.0997, 0.0996, 0.09949999999999999, 0.09939999999999999, 0.09929999999999999, 0.09919999999999998, 0.09909999999999998, 0.09899999999999998, 0.09889999999999997, 0.09879999999999997, 0.09869999999999997, 0.09859999999999997, 0.09849999999999996, 0.09839999999999996, 0.09829999999999996, 0.09819999999999995, 0.09809999999999995, 0.09799999999999995, 0.09789999999999995, 0.09779999999999994, 0.09769999999999994, 0.09759999999999994, 0.09749999999999993, 0.09739999999999993, 0.09729999999999993, 0.09719999999999993, 0.09709999999999992, 0.09699999999999992, 0.09689999999999992, 0.09679999999999991, 0.09669999999999991, 0.09659999999999991, 0.0964999999999999, 0.0963999999999999, 0.0962999999999999, 0.0961999999999999, 0.0960999999999999, 0.09599999999999989, 0.09589999999999989, 0.09579999999999989, 0.09569999999999988, 0.09559999999999988, 0.09549999999999988, 0.09539999999999987, 0.09529999999999987, 0.09519999999999987, 0.09509999999999987, 0.09499999999999986, 0.09489999999999986, 0.09479999999999986, 0.09469999999999985, 0.09459999999999985, 0.09449999999999985, 0.09439999999999985, 0.09429999999999984, 0.09419999999999984, 0.09409999999999984, 0.09399999999999983, 0.09389999999999983, 0.09379999999999983, 0.09369999999999983, 0.09359999999999982, 0.09349999999999982, 0.09339999999999982, 0.09329999999999981, 0.09319999999999981, 0.09309999999999981, 0.0929999999999998, 0.0928999999999998, 0.0927999999999998, 0.0926999999999998, 0.0925999999999998, 0.09249999999999979, 0.09239999999999979, 0.09229999999999978, 0.09219999999999978, 0.09209999999999978, 0.09199999999999978, 0.09189999999999977, 0.09179999999999977, 0.09169999999999977, 0.09159999999999976, 0.09149999999999976, 0.09139999999999976, 0.09129999999999976, 0.09119999999999975, 0.09109999999999975, 0.09099999999999975, 0.09089999999999974, 0.09079999999999974, 0.09069999999999974, 0.09059999999999974, 0.09049999999999973, 0.09039999999999973, 0.09029999999999973, 0.09019999999999972, 0.09009999999999972, 0.08999999999999972]</t>
+  </si>
+  <si>
+    <t>[0, 0.9036458333333334, 0.9490885416666667, 0.96328125, 0.9729166666666667, 0.980078125, 0.9802083333333333, 0.9815104166666667, 0.9813802083333333, 0.97734375, 0.9770833333333333, 0.9819010416666667, 0.9829427083333333, 0.986328125, 0.984765625, 0.98125, 0.9809895833333333, 0.9841145833333333, 0.9850260416666666, 0.984375, 0.983203125, 0.982421875, 0.9826822916666667, 0.9829427083333333, 0.9848958333333333, 0.9838541666666667, 0.986328125, 0.9845052083333333, 0.9815104166666667, 0.9860677083333333, 0.9852864583333333, 0.9822916666666667, 0.98515625, 0.9858072916666667, 0.9796875, 0.980078125, 0.9856770833333334, 0.9833333333333333, 0.9833333333333333, 0.9850260416666666, 0.9830729166666666, 0.983984375, 0.984765625, 0.9837239583333334, 0.9858072916666667, 0.983984375, 0.983984375, 0.9842447916666667, 0.9875, 0.9838541666666667, 0.9850260416666666, 0.9813802083333333, 0.98515625, 0.9841145833333333, 0.9819010416666667, 0.986328125, 0.9826822916666667, 0.9841145833333333, 0.98359375, 0.986328125, 0.98515625, 0.9846354166666667, 0.9858072916666667, 0.9837239583333334, 0.9825520833333333, 0.9854166666666667, 0.98671875, 0.9861979166666667, 0.9842447916666667, 0.9838541666666667, 0.984375, 0.98359375, 0.98515625, 0.985546875, 0.9860677083333333, 0.9860677083333333, 0.9860677083333333, 0.9826822916666667, 0.98515625, 0.984765625, 0.9875, 0.9856770833333334, 0.9837239583333334, 0.984765625, 0.9856770833333334, 0.986328125, 0.983203125, 0.9865885416666667, 0.9813802083333333, 0.9829427083333333, 0.9837239583333334, 0.984375, 0.98515625, 0.9858072916666667, 0.984765625, 0.985546875, 0.9858072916666667, 0.9852864583333333, 0.98828125, 0.98671875, 0.9837239583333334]</t>
+  </si>
+  <si>
+    <t>98.36%</t>
+  </si>
+  <si>
+    <t>[0.42420966227849327, 0.22688608169555663, 0.13951094796260197, 0.09602633466323217, 0.07931164801120758, 0.05061317483584086, 0.03728014628092448, 0.05094054465492567, 0.041692925865451494, 0.05107342451810837, 0.031768886869152385, 0.032010742897788685, 0.018957804143428802, 0.02459036329140266, 0.027787925861775874, 0.03345410693436861, 0.023328627770145733, 0.012058564244459074, 0.010261354331548015, 0.012219599712019165, 0.015497696461776893, 0.028318994181851544, 0.019659268793960412, 0.009693271697809298, 0.006626130834532281, 0.007335910542557637, 0.00920085006703933, 0.01363083478063345, 0.014616649046850701, 0.005449966581848761, 0.004174919073314716, 0.004889833554625511, 0.008236096353114893, 0.013452543861543138, 0.007591178469980756, 0.0045454373233951625, 0.0038075988025714955, 0.004569819534663111, 0.008328118609885376, 0.010381054195264975, 0.007063584596229096, 0.004805178202999135, 0.003923091055670133, 0.004746274696663022, 0.005840262188576162, 0.008074852948387464, 0.006151183054316789, 0.003459745408811917, 0.0023136262374464423, 0.0025222582393325866, 0.002366163785336539, 0.006395393687610825, 0.00558718474349007, 0.0022112525747312855, 0.0030531771403426926, 0.002059852147552495, 0.0041320634773001075, 0.007783023236940304, 0.003654884971911088, 0.0013356954150367528, 0.0019876688330744702, 0.0033590783927744876, 0.0038127292607290047, 0.007101989203753571, 0.005263660950974251, 0.002699661658455928, 0.0019899494499744227, 0.0014550265526243795, 0.0015750713956852755, 0.005925943368735412, 0.006402380741201341, 0.0024438040214590727, 0.0009725508512929082, 0.0023888520430773497, 0.0026632464684856433, 0.006270028419870262, 0.003683119243942201, 0.0021824162957879405, 0.0016144008589132378, 0.0011159549661291142, 0.0015653001028113067, 0.0038941609459773948, 0.004853132426796946, 0.0020525822964070056, 0.0010984897727515394, 0.0008853161188502175, 0.0019073859788477422, 0.0029874031043921907, 0.0026248972358492513, 0.001469769540320461, 0.0022132193960715087, 0.0021396390337031336, 0.0028864373142520588, 0.002464082780837392, 0.004237135480313251, 0.0015932417853036895, 0.0022841301586595366, 0.0014710300349785636, 0.0011327532653619226, 0.002269911781574289]</t>
+  </si>
+  <si>
+    <t>[0.0, 0.040000000000000015, 0.06999999999999999, 0.1, 0.07000000000000003, 0.03999999999999998, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.03999999999999998, 0.07000000000000003, 0.1, 0.07000000000000003, 0.03999999999999998, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000216, 0.0699999999999998, 0.1, 0.0699999999999998, 0.040000000000000216, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.03999999999999958, 0.07000000000000044, 0.1, 0.07000000000000044, 0.03999999999999958, 0.01, 0.040000000000000216, 0.0699999999999998, 0.1, 0.0699999999999998]</t>
+  </si>
+  <si>
+    <t>98.37%</t>
+  </si>
+  <si>
+    <t>TA Decreciente (propuesta)</t>
+  </si>
+  <si>
+    <t>TA Ciclica</t>
+  </si>
+  <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +150,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,211 +474,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="53" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc_list</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>test_acc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[0, 0.9477864583333333, 0.9662760416666667, 0.97265625, 0.9740885416666667, 0.97890625, 0.9796875, 0.98125, 0.982421875, 0.98203125, 0.982421875, 0.9809895833333333, 0.9805989583333333, 0.9817708333333334, 0.9828125, 0.9817708333333334, 0.9834635416666667, 0.98359375, 0.9845052083333333, 0.9805989583333333, 0.9852864583333333, 0.9834635416666667, 0.9848958333333333, 0.987109375, 0.9877604166666667, 0.9850260416666666, 0.983203125, 0.9852864583333333, 0.9822916666666667, 0.9825520833333333, 0.98359375, 0.9865885416666667, 0.9838541666666667, 0.9837239583333334, 0.98515625, 0.9850260416666666, 0.9838541666666667, 0.9799479166666667, 0.9858072916666667, 0.9852864583333333, 0.98515625, 0.9865885416666667, 0.986328125, 0.9850260416666666, 0.982421875, 0.9838541666666667, 0.9842447916666667, 0.9856770833333334, 0.9846354166666667, 0.9861979166666667, 0.9858072916666667, 0.9854166666666667, 0.9875, 0.9852864583333333, 0.985546875, 0.98515625, 0.985546875, 0.9860677083333333, 0.9852864583333333, 0.9865885416666667, 0.9860677083333333, 0.9837239583333334, 0.984765625, 0.9837239583333334, 0.984375, 0.986328125, 0.9890625, 0.9856770833333334, 0.98359375, 0.9848958333333333, 0.9854166666666667, 0.9858072916666667, 0.9828125, 0.985546875, 0.9837239583333334, 0.9859375, 0.983203125, 0.980859375, 0.9846354166666667, 0.98515625, 0.986328125, 0.9826822916666667, 0.9859375, 0.983203125, 0.9838541666666667, 0.9826822916666667, 0.9856770833333334, 0.9850260416666666, 0.9834635416666667, 0.984375, 0.9854166666666667, 0.9869791666666666, 0.98515625, 0.98359375, 0.98515625, 0.984765625, 0.9864583333333333, 0.9845052083333333, 0.985546875, 0.985546875, 0.98515625]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>98.65%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.2410281519095103, 0.14465323835611343, 0.09575072973966599, 0.08263205736875534, 0.0686377135415872, 0.04922281056642532, 0.034622813450793426, 0.03951647455493609, 0.036884210507074994, 0.04049759500970443, 0.04622013842066129, 0.04143776843945186, 0.03747465051710606, 0.019692174283166726, 0.015072365663945675, 0.01198188296208779, 0.011817771693070729, 0.017812712738911312, 0.016914544099320968, 0.018887589840839308, 0.01898238779976964, 0.01337765557691455, 0.007899004081264139, 0.007363290075833599, 0.005871089827269316, 0.010502328009655079, 0.013363510672934353, 0.014684370517109831, 0.013024631468579174, 0.008391163505924245, 0.007414967760754129, 0.004439791160014768, 0.0032418900053016843, 0.010246195644140244, 0.008963139611296356, 0.014980280996921162, 0.01122436709702015, 0.007918274697537224, 0.00386066601301233, 0.0036860972177237272, 0.0029701329457263153, 0.0035582820807273188, 0.010491678326313073, 0.007337799427720408, 0.009627504530362785, 0.007223483772637943, 0.004522478956884394, 0.0022722159240705273, 0.0038648691261187196, 0.00455917304692169, 0.006146762683056295, 0.006731955821548278, 0.006323461188003421, 0.0026894679293036463, 0.0028459895411894346, 0.0014087465630533795, 0.00272459972766228, 0.002643019719592606, 0.003333115195467447, 0.0061013591689212865, 0.004308410050968329, 0.004603281351349627, 0.003796228737337515, 0.002177500964414018, 0.002021797263296321, 0.0020771914899038774, 0.003730252700430962, 0.004091534010755519, 0.004403422175285717, 0.005043045916439345, 0.0018929003602049003, 0.001747462136942583, 0.002983524048856149, 0.00402766986808274, 0.0018030638942339767, 0.005603912106986779, 0.004703416501676353, 0.0033245937142055483, 0.0018860897175424422, 0.0016840749924692015, 0.0009292126400396228, 0.001786123588681221, 0.001308164139239428, 0.0029555862119498974, 0.005436527432175353, 0.002001362230900365, 0.0010999058024026454, 0.0014715331674475844, 0.0006259262489038519, 0.0019741746529083077, 0.0031515277708725384, 0.00380183737919045, 0.0035137673393667987, 0.00244523766838635, 0.0017912870137176166, 0.0010627749667037278, 0.0016529379136045463, 0.0016594949697415966, 0.0009614998057562237, 0.0014130577357718721]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>33769.72916666666</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>33769.729166666657</v>
+      </c>
+      <c r="E2">
         <v>2.666666666666667</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Random Ciclico Extended</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0998280762722844, 0.09998529135205533, 0.09999222542003228, 0.10077851787697745, 0.05698403464315436, 0.015709099666983858, 0.010195701301402373, 0.010044942029303838, 0.028238656515845704, 0.09562981535149231, 0.09623143960490291, 0.09920287836213479, 0.04002196961695877, 0.03754148782118897, 0.019198920539901014, 0.015862653282333286, 0.08554737466717242, 0.08694863598038381, 0.09490179464338172, 0.10058469765337313, 0.06629754259704698, 0.02370496232994205, 0.023138289934121255, 0.02080694322694981, 0.057753980949134365, 0.07713771090145381, 0.08968062360040466, 0.09768682611536061, 0.08388907129419336, 0.08320382273198443, 0.05553381834938299, 0.009242151225330444, 0.07124166923428114, 0.07650270018854671, 0.08956927516841699, 0.09844843534581504, 0.08736315967096732, 0.035748315528207696, 0.025833430170188458, 0.00920491337038913, 0.07515067336044233, 0.0824021918225562, 0.09838994480311178, 0.09898417184781998, 0.04620684580072862, 0.04217647643029522, 0.014271253525974002, 0.010871061673054306, 0.058277327401875585, 0.07012044761902175, 0.08766164138514748, 0.09634058975400986, 0.094894689535365, 0.053156538371597624, 0.037181705642244975, 0.025458789251507064, 0.09179332084554664, 0.09405473325750213, 0.09443557616408561, 0.09665586673175962, 0.07463777162329269, 0.02659594111379949, 0.02395074436118664, 0.014956430362604224, 0.07280167667394485, 0.08952396457698521, 0.09794906267645913, 0.09992822828290623, 0.09545336531275599, 0.09493216069183734, 0.021609743320701074, 0.01911882730550641, 0.04741809918199272, 0.0835672892847782, 0.09405383865011442, 0.09556109688022531, 0.09162826883340196, 0.014170152170785289, 0.012184569897200067, 0.011367775525429207, 0.045849400222604406, 0.07312043367953369, 0.09063366765543865, 0.09995122665754945, 0.07108599857864381, 0.03933284812086879, 0.018099403878547894, 0.009986366044705427, 0.05333160744911608, 0.057414597216204455, 0.0756665587916975, 0.10017927189769973, 0.05235819077960823, 0.04871896379234454, 0.043579235421921304, 0.02014080773014429, 0.09160383697161553, 0.09543428672815438, 0.09690071816235404, 0.09751855225693178]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>98.52%</t>
-        </is>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[0, 0.90859375, 0.9278645833333333, 0.9412760416666667, 0.9505208333333334, 0.9596354166666666, 0.9622395833333334, 0.9643229166666667, 0.9682291666666667, 0.9701822916666667, 0.972265625, 0.9721354166666667, 0.9739583333333334, 0.9740885416666667, 0.975390625, 0.9763020833333333, 0.977734375, 0.9790364583333333, 0.9778645833333334, 0.9756510416666667, 0.9821614583333333, 0.9790364583333333, 0.9802083333333333, 0.981640625, 0.9798177083333334, 0.9799479166666667, 0.982421875, 0.9787760416666667, 0.9802083333333333, 0.9798177083333334, 0.9815104166666667, 0.98046875, 0.9828125, 0.9799479166666667, 0.9805989583333333, 0.98203125, 0.980078125, 0.9825520833333333, 0.98046875, 0.9819010416666667, 0.9819010416666667, 0.9783854166666667, 0.9833333333333333, 0.9850260416666666, 0.9833333333333333, 0.9837239583333334, 0.9842447916666667, 0.9841145833333333, 0.9837239583333334, 0.9838541666666667, 0.9841145833333333, 0.9830729166666666, 0.9858072916666667, 0.9859375, 0.9852864583333333, 0.982421875, 0.980859375, 0.9850260416666666, 0.9825520833333333, 0.984765625, 0.9829427083333333, 0.9828125, 0.98203125, 0.985546875, 0.9838541666666667, 0.9833333333333333, 0.9834635416666667, 0.9829427083333333, 0.9837239583333334, 0.9830729166666666, 0.9815104166666667, 0.983984375, 0.9829427083333333, 0.98359375, 0.9825520833333333, 0.9817708333333334, 0.9803385416666667, 0.9819010416666667, 0.9852864583333333, 0.9837239583333334, 0.9860677083333333, 0.9846354166666667, 0.98515625, 0.9865885416666667, 0.98671875, 0.9834635416666667, 0.986328125, 0.9852864583333333, 0.983984375, 0.9838541666666667, 0.9846354166666667, 0.9856770833333334, 0.9876302083333334, 0.9854166666666667, 0.9841145833333333, 0.9826822916666667, 0.9868489583333333, 0.9850260416666666, 0.9856770833333334, 0.984765625, 0.9848958333333333]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>98.45%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.4133042454719543, 0.3114662786324819, 0.2548975646495819, 0.22846281230449678, 0.18254066507021585, 0.1603513573606809, 0.14837950915098191, 0.12797302256027857, 0.12356487264235815, 0.1309336394071579, 0.11157601922750474, 0.09881754368543624, 0.09433105985323588, 0.09096547017494837, 0.07867998878161113, 0.08048059493303299, 0.07855132594704628, 0.06690428579847017, 0.05960954204201698, 0.06334008102615675, 0.060434989631175995, 0.055286094173789026, 0.058789847791194914, 0.05135727723439534, 0.052848718439539276, 0.051012270897626874, 0.0464123139778773, 0.04192570447921753, 0.04047607022027175, 0.04188028201460838, 0.038773565118511516, 0.034255165172119934, 0.0324412959938248, 0.035521214144925276, 0.03315851998825868, 0.03256988370170196, 0.03315371094892423, 0.03583191893994808, 0.02971161703268687, 0.030710987063745657, 0.02727018271883329, 0.0273324195916454, 0.018526106234639884, 0.02251420170068741, 0.02169298507894079, 0.022289593641956647, 0.019433986271421115, 0.019056317241241533, 0.01989104614282648, 0.0174306387702624, 0.01782880909740925, 0.014808275426427523, 0.014448406329999367, 0.016504870696614184, 0.018338291409114995, 0.014481958405425151, 0.015280823099116485, 0.01684860804428657, 0.015663870082547268, 0.015031656033049028, 0.015370682689050834, 0.015141285552332798, 0.012592472787946462, 0.013117084310700496, 0.013422478425006072, 0.008987949912746747, 0.010525686293840408, 0.009855219287176926, 0.011978985276073217, 0.01158608083302776, 0.00911220231403907, 0.008750236965715886, 0.011244047184785206, 0.013082584893951813, 0.009572608986248572, 0.009878930154566963, 0.009849969716742634, 0.007900263058642547, 0.011422487953677774, 0.008032132041019697, 0.010259285693367322, 0.008754098306720455, 0.010325968234489362, 0.007617683506881198, 0.006991100078448653, 0.008951045759022235, 0.007789134855071703, 0.007560062734410167, 0.009577198217933377, 0.007963672280311584, 0.008567630623777708, 0.0071575715361783905, 0.006594343576580286, 0.0060687461557487644, 0.005992783388743798, 0.008986421938364705, 0.008521800953894853, 0.007965912700941165, 0.005581794531705478, 0.0053250232866654795]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>34751.79166666666</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Momentum</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.0, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>98.49%</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>34751.791666666657</v>
+      </c>
+      <c r="E3">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[0, 0.9576822916666666, 0.9740885416666667, 0.9778645833333334, 0.97734375, 0.9795572916666667, 0.9813802083333333, 0.9799479166666667, 0.980078125, 0.983984375, 0.9837239583333334, 0.98203125, 0.982421875, 0.9838541666666667, 0.982421875, 0.982421875, 0.9837239583333334, 0.9821614583333333, 0.9830729166666666, 0.9856770833333334, 0.9845052083333333, 0.9821614583333333, 0.986328125, 0.982421875, 0.9861979166666667, 0.9822916666666667, 0.9848958333333333, 0.9860677083333333, 0.9845052083333333, 0.983203125, 0.9833333333333333, 0.9850260416666666, 0.98203125, 0.9858072916666667, 0.984765625, 0.9846354166666667, 0.9850260416666666, 0.9838541666666667, 0.9856770833333334, 0.9830729166666666, 0.9845052083333333, 0.9830729166666666, 0.9854166666666667, 0.9841145833333333, 0.983984375, 0.9861979166666667, 0.9845052083333333, 0.988671875, 0.9826822916666667, 0.98515625, 0.9845052083333333, 0.98515625, 0.9841145833333333, 0.98671875, 0.9846354166666667, 0.9842447916666667, 0.9869791666666666, 0.984765625, 0.9856770833333334, 0.9841145833333333, 0.9858072916666667, 0.9846354166666667, 0.983984375, 0.9805989583333333, 0.9860677083333333, 0.9852864583333333, 0.9854166666666667, 0.9834635416666667, 0.9858072916666667, 0.984765625, 0.984765625, 0.985546875, 0.98671875, 0.9842447916666667, 0.9826822916666667, 0.9846354166666667, 0.9830729166666666, 0.9856770833333334, 0.9856770833333334, 0.9846354166666667, 0.9846354166666667, 0.9828125, 0.9848958333333333, 0.983984375, 0.9841145833333333, 0.9846354166666667, 0.98515625, 0.9869791666666666, 0.9837239583333334, 0.982421875, 0.9817708333333334, 0.9813802083333333, 0.9848958333333333, 0.9869791666666666, 0.9842447916666667, 0.987890625, 0.9829427083333333, 0.9846354166666667, 0.9817708333333334, 0.982421875, 0.9841145833333333]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>98.41%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.16654897530873616, 0.12576717684666316, 0.09602035780747732, 0.07833768079678217, 0.06012512817978859, 0.05046225575109323, 0.04357406459748745, 0.0455878088871638, 0.033885726456840834, 0.028808938587705293, 0.025155609721938768, 0.019969952727357545, 0.02422562421609958, 0.017019055566440025, 0.018091176419208446, 0.015503580216318369, 0.014585695508867503, 0.009911529999226332, 0.011360977574562033, 0.009253290994092823, 0.011635767004918307, 0.008253644748280446, 0.009715925653775532, 0.007983016564200323, 0.010259726146856944, 0.008587601206575831, 0.00957315304937462, 0.007273183250799775, 0.011026924293643485, 0.006707927957177162, 0.0031491965404711665, 0.0069768768191958465, 0.007457674127848198, 0.006635320334074398, 0.005614762652354935, 0.006730691619062175, 0.004759072170903285, 0.003726971374514202, 0.004765227646566927, 0.007104885403532535, 0.0057880074523078895, 0.0033380240104937306, 0.0038104041460125396, 0.00317255884486561, 0.004187914383752892, 0.003050354713923298, 0.005948853112446765, 0.005367288151561903, 0.00537927143741399, 0.006299815278422708, 0.0028049785643815993, 0.0021799033866651977, 0.004214441537624225, 0.005139571007263536, 0.004994203786676129, 0.006522642479588588, 0.003910661201613644, 0.003240176947050107, 0.005706426770969605, 0.003065635441453196, 0.002650658324516068, 0.002800739591475576, 0.0020319646593028057, 0.002022431891721984, 0.002541455725925819, 0.0025349553344616044, 0.00414255538295644, 0.0027594101673457773, 0.0014844391562898332, 0.0025685916620811137, 0.0017717113718390466, 0.00309583582857158, 0.001214675793501859, 0.001828562626421141, 0.0010081371268218693, 0.0019128687286865897, 0.004188486153240471, 0.001567315355108197, 0.004255076380407748, 0.003007426785188727, 0.0006983004219364375, 0.0013937094568973406, 0.002789175933867227, 0.0022616559067197765, 0.0017938971650437452, 0.0011789071356664257, 0.001392804785912934, 0.0011701605646521785, 0.0016655930099659598, 0.0018916320240047449, 0.002219982012199277, 0.0021333044176572004, 0.0015951166011897537, 0.0029698281502836227, 0.0014195647129478554, 0.001143140513158869, 0.0008913539131754078, 0.000822726320863391, 0.0006891387851889401, 0.002784707192040514]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>33383.92552083333</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.266666666666667</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nuestro decreciente con Momentum</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0.0, 0.0999, 0.0998, 0.0997, 0.0996, 0.09949999999999999, 0.09939999999999999, 0.09929999999999999, 0.09919999999999998, 0.09909999999999998, 0.09899999999999998, 0.09889999999999997, 0.09879999999999997, 0.09869999999999997, 0.09859999999999997, 0.09849999999999996, 0.09839999999999996, 0.09829999999999996, 0.09819999999999995, 0.09809999999999995, 0.09799999999999995, 0.09789999999999995, 0.09779999999999994, 0.09769999999999994, 0.09759999999999994, 0.09749999999999993, 0.09739999999999993, 0.09729999999999993, 0.09719999999999993, 0.09709999999999992, 0.09699999999999992, 0.09689999999999992, 0.09679999999999991, 0.09669999999999991, 0.09659999999999991, 0.0964999999999999, 0.0963999999999999, 0.0962999999999999, 0.0961999999999999, 0.0960999999999999, 0.09599999999999989, 0.09589999999999989, 0.09579999999999989, 0.09569999999999988, 0.09559999999999988, 0.09549999999999988, 0.09539999999999987, 0.09529999999999987, 0.09519999999999987, 0.09509999999999987, 0.09499999999999986, 0.09489999999999986, 0.09479999999999986, 0.09469999999999985, 0.09459999999999985, 0.09449999999999985, 0.09439999999999985, 0.09429999999999984, 0.09419999999999984, 0.09409999999999984, 0.09399999999999983, 0.09389999999999983, 0.09379999999999983, 0.09369999999999983, 0.09359999999999982, 0.09349999999999982, 0.09339999999999982, 0.09329999999999981, 0.09319999999999981, 0.09309999999999981, 0.0929999999999998, 0.0928999999999998, 0.0927999999999998, 0.0926999999999998, 0.0925999999999998, 0.09249999999999979, 0.09239999999999979, 0.09229999999999978, 0.09219999999999978, 0.09209999999999978, 0.09199999999999978, 0.09189999999999977, 0.09179999999999977, 0.09169999999999977, 0.09159999999999976, 0.09149999999999976, 0.09139999999999976, 0.09129999999999976, 0.09119999999999975, 0.09109999999999975, 0.09099999999999975, 0.09089999999999974, 0.09079999999999974, 0.09069999999999974, 0.09059999999999974, 0.09049999999999973, 0.09039999999999973, 0.09029999999999973, 0.09019999999999972, 0.09009999999999972, 0.08999999999999972]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>98.41%</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>33383.925520833327</v>
+      </c>
+      <c r="E4">
+        <v>2.2666666666666671</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>[0, 0.9036458333333334, 0.9490885416666667, 0.96328125, 0.9729166666666667, 0.980078125, 0.9802083333333333, 0.9815104166666667, 0.9813802083333333, 0.97734375, 0.9770833333333333, 0.9819010416666667, 0.9829427083333333, 0.986328125, 0.984765625, 0.98125, 0.9809895833333333, 0.9841145833333333, 0.9850260416666666, 0.984375, 0.983203125, 0.982421875, 0.9826822916666667, 0.9829427083333333, 0.9848958333333333, 0.9838541666666667, 0.986328125, 0.9845052083333333, 0.9815104166666667, 0.9860677083333333, 0.9852864583333333, 0.9822916666666667, 0.98515625, 0.9858072916666667, 0.9796875, 0.980078125, 0.9856770833333334, 0.9833333333333333, 0.9833333333333333, 0.9850260416666666, 0.9830729166666666, 0.983984375, 0.984765625, 0.9837239583333334, 0.9858072916666667, 0.983984375, 0.983984375, 0.9842447916666667, 0.9875, 0.9838541666666667, 0.9850260416666666, 0.9813802083333333, 0.98515625, 0.9841145833333333, 0.9819010416666667, 0.986328125, 0.9826822916666667, 0.9841145833333333, 0.98359375, 0.986328125, 0.98515625, 0.9846354166666667, 0.9858072916666667, 0.9837239583333334, 0.9825520833333333, 0.9854166666666667, 0.98671875, 0.9861979166666667, 0.9842447916666667, 0.9838541666666667, 0.984375, 0.98359375, 0.98515625, 0.985546875, 0.9860677083333333, 0.9860677083333333, 0.9860677083333333, 0.9826822916666667, 0.98515625, 0.984765625, 0.9875, 0.9856770833333334, 0.9837239583333334, 0.984765625, 0.9856770833333334, 0.986328125, 0.983203125, 0.9865885416666667, 0.9813802083333333, 0.9829427083333333, 0.9837239583333334, 0.984375, 0.98515625, 0.9858072916666667, 0.984765625, 0.985546875, 0.9858072916666667, 0.9852864583333333, 0.98828125, 0.98671875, 0.9837239583333334]</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>98.36%</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.42420966227849327, 0.22688608169555663, 0.13951094796260197, 0.09602633466323217, 0.07931164801120758, 0.05061317483584086, 0.03728014628092448, 0.05094054465492567, 0.041692925865451494, 0.05107342451810837, 0.031768886869152385, 0.032010742897788685, 0.018957804143428802, 0.02459036329140266, 0.027787925861775874, 0.03345410693436861, 0.023328627770145733, 0.012058564244459074, 0.010261354331548015, 0.012219599712019165, 0.015497696461776893, 0.028318994181851544, 0.019659268793960412, 0.009693271697809298, 0.006626130834532281, 0.007335910542557637, 0.00920085006703933, 0.01363083478063345, 0.014616649046850701, 0.005449966581848761, 0.004174919073314716, 0.004889833554625511, 0.008236096353114893, 0.013452543861543138, 0.007591178469980756, 0.0045454373233951625, 0.0038075988025714955, 0.004569819534663111, 0.008328118609885376, 0.010381054195264975, 0.007063584596229096, 0.004805178202999135, 0.003923091055670133, 0.004746274696663022, 0.005840262188576162, 0.008074852948387464, 0.006151183054316789, 0.003459745408811917, 0.0023136262374464423, 0.0025222582393325866, 0.002366163785336539, 0.006395393687610825, 0.00558718474349007, 0.0022112525747312855, 0.0030531771403426926, 0.002059852147552495, 0.0041320634773001075, 0.007783023236940304, 0.003654884971911088, 0.0013356954150367528, 0.0019876688330744702, 0.0033590783927744876, 0.0038127292607290047, 0.007101989203753571, 0.005263660950974251, 0.002699661658455928, 0.0019899494499744227, 0.0014550265526243795, 0.0015750713956852755, 0.005925943368735412, 0.006402380741201341, 0.0024438040214590727, 0.0009725508512929082, 0.0023888520430773497, 0.0026632464684856433, 0.006270028419870262, 0.003683119243942201, 0.0021824162957879405, 0.0016144008589132378, 0.0011159549661291142, 0.0015653001028113067, 0.0038941609459773948, 0.004853132426796946, 0.0020525822964070056, 0.0010984897727515394, 0.0008853161188502175, 0.0019073859788477422, 0.0029874031043921907, 0.0026248972358492513, 0.001469769540320461, 0.0022132193960715087, 0.0021396390337031336, 0.0028864373142520588, 0.002464082780837392, 0.004237135480313251, 0.0015932417853036895, 0.0022841301586595366, 0.0014710300349785636, 0.0011327532653619226, 0.002269911781574289]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>34030.32317708333</v>
       </c>
-      <c r="E5" t="n">
-        <v>4.066666666666666</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ciclico Con Momentum</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[0.0, 0.040000000000000015, 0.06999999999999999, 0.1, 0.07000000000000003, 0.03999999999999998, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.03999999999999998, 0.07000000000000003, 0.1, 0.07000000000000003, 0.03999999999999998, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000056, 0.06999999999999995, 0.1, 0.06999999999999995, 0.040000000000000056, 0.01, 0.040000000000000216, 0.0699999999999998, 0.1, 0.0699999999999998, 0.040000000000000216, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.0399999999999999, 0.07000000000000012, 0.1, 0.07000000000000012, 0.0399999999999999, 0.01, 0.03999999999999958, 0.07000000000000044, 0.1, 0.07000000000000044, 0.03999999999999958, 0.01, 0.040000000000000216, 0.0699999999999998, 0.1, 0.0699999999999998]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>98.37%</t>
-        </is>
+      <c r="E5">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
